--- a/htmlTable2XLS/foo.xlsx
+++ b/htmlTable2XLS/foo.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>メンションするユーザーの候補一覧を表示します。 続きを読む...</t>
+          <t>メンションするユーザーの候補一覧を表示します。続きを読む...</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,8 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ページに追加する絵文字の候補リストを表示します。 表示数を増やす...</t>
+          <t>ページに追加する絵文字の候補リストを表示します。
+表示数を増やす...</t>
         </is>
       </c>
     </row>
